--- a/Infos_db_structure.xlsx
+++ b/Infos_db_structure.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
   <si>
     <t>Echo Tele Expertise</t>
   </si>
@@ -446,6 +446,21 @@
   </si>
   <si>
     <t>doctor_id=user</t>
+  </si>
+  <si>
+    <t>Email Utiliser dans l'application:</t>
+  </si>
+  <si>
+    <t>Utilisateur:</t>
+  </si>
+  <si>
+    <t>echoteleexpertise@gmail.com</t>
+  </si>
+  <si>
+    <t>Mot de passe:</t>
+  </si>
+  <si>
+    <t>admin2020</t>
   </si>
 </sst>
 </file>
@@ -475,19 +490,27 @@
     </font>
     <font/>
     <font>
+      <i/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="14.0"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12.0"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -544,6 +567,9 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -559,10 +585,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -572,16 +595,16 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -794,6 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -807,70 +831,71 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -921,7 +946,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="8"/>
@@ -1257,9 +1282,9 @@
       <c r="D53" s="4"/>
     </row>
     <row r="54">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55">
       <c r="B55" s="9" t="s">
@@ -1269,13 +1294,13 @@
       <c r="D55" s="11"/>
     </row>
     <row r="56">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1342,13 +1367,13 @@
       <c r="D64" s="11"/>
     </row>
     <row r="65">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1536,13 +1561,13 @@
       <c r="D84" s="11"/>
     </row>
     <row r="85">
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1613,73 +1638,94 @@
       </c>
     </row>
     <row r="94" ht="22.5" customHeight="1">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="4" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1691,6 +1737,9 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B84:D84"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>